--- a/raw_data/20200818_saline/20200818_Sensor0_Test_81.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_81.xlsx
@@ -1,2035 +1,2451 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252C76C-5694-416F-B02D-1176A0278E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>72002.911061</v>
+        <v>72002.911061000006</v>
       </c>
       <c r="B2" s="1">
         <v>20.000809</v>
       </c>
       <c r="C2" s="1">
-        <v>903.880000</v>
+        <v>903.88</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.701000</v>
+        <v>-189.70099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>72013.342440</v>
+        <v>72013.342439999993</v>
       </c>
       <c r="G2" s="1">
-        <v>20.003706</v>
+        <v>20.003706000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.875000</v>
+        <v>919.875</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.295000</v>
+        <v>-161.29499999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>72024.179530</v>
+        <v>72024.179529999994</v>
       </c>
       <c r="L2" s="1">
-        <v>20.006717</v>
+        <v>20.006716999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>941.633000</v>
+        <v>941.63300000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.610000</v>
+        <v>-116.61</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>72034.679345</v>
+        <v>72034.679344999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.009633</v>
+        <v>20.009633000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.356000</v>
+        <v>948.35599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.116000</v>
+        <v>-102.116</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>72045.019406</v>
+        <v>72045.019406000007</v>
       </c>
       <c r="V2" s="1">
-        <v>20.012505</v>
+        <v>20.012505000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.007000</v>
+        <v>955.00699999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.933700</v>
+        <v>-88.933700000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>72055.132871</v>
+        <v>72055.132870999994</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.015315</v>
+        <v>20.015315000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.596000</v>
+        <v>962.596</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.139100</v>
+        <v>-80.139099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>72065.395555</v>
+        <v>72065.395554999996</v>
       </c>
       <c r="AF2" s="1">
         <v>20.018165</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.902000</v>
+        <v>967.90200000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.579400</v>
+        <v>-79.579400000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72075.889413</v>
+        <v>72075.889412999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.021080</v>
+        <v>20.021080000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.947000</v>
+        <v>975.947</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.383700</v>
+        <v>-87.383700000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>72086.148168</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.023930</v>
+        <v>20.02393</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.268000</v>
+        <v>985.26800000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.121000</v>
+        <v>-102.121</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>72097.082009</v>
+        <v>72097.082009000005</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.026967</v>
+        <v>20.026966999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.719000</v>
+        <v>996.71900000000005</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.421000</v>
+        <v>-123.42100000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>72107.940891</v>
+        <v>72107.940891000006</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.029984</v>
+        <v>20.029983999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.360000</v>
+        <v>1006.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-141.975000</v>
+        <v>-141.97499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>72118.868254</v>
+        <v>72118.868254000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.033019</v>
+        <v>20.033018999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.707000</v>
+        <v>-225.70699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>72129.888895</v>
+        <v>72129.888894999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.036080</v>
+        <v>20.036079999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1131.130000</v>
+        <v>1131.1300000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.488000</v>
+        <v>-359.488</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>72141.320159</v>
+        <v>72141.320158999995</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.039256</v>
+        <v>20.039256000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-565.463000</v>
+        <v>-565.46299999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>72153.204832</v>
+        <v>72153.204832000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.042557</v>
+        <v>20.042556999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.780000</v>
+        <v>1407.78</v>
       </c>
       <c r="BV2" s="1">
-        <v>-785.212000</v>
+        <v>-785.21199999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>72164.218962</v>
+        <v>72164.218961999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.045616</v>
+        <v>20.045615999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1567.330000</v>
+        <v>1567.33</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1013.560000</v>
+        <v>-1013.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>72175.520802</v>
+        <v>72175.520801999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.048756</v>
+        <v>20.048756000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1968.740000</v>
+        <v>1968.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1546.720000</v>
+        <v>-1546.72</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>72003.303414</v>
+        <v>72003.303413999995</v>
       </c>
       <c r="B3" s="1">
-        <v>20.000918</v>
+        <v>20.000917999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>904.053000</v>
+        <v>904.053</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.651000</v>
+        <v>-189.65100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>72014.038823</v>
+        <v>72014.038822999995</v>
       </c>
       <c r="G3" s="1">
-        <v>20.003900</v>
+        <v>20.003900000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>919.814000</v>
+        <v>919.81399999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.236000</v>
+        <v>-161.23599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>72024.576324</v>
+        <v>72024.576323999994</v>
       </c>
       <c r="L3" s="1">
-        <v>20.006827</v>
+        <v>20.006827000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.817000</v>
+        <v>941.81700000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.635000</v>
+        <v>-116.63500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>72035.097435</v>
+        <v>72035.097435000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.009749</v>
+        <v>20.009748999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.361000</v>
+        <v>948.36099999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.141000</v>
+        <v>-102.14100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>72045.367102</v>
+        <v>72045.367102000004</v>
       </c>
       <c r="V3" s="1">
-        <v>20.012602</v>
+        <v>20.012602000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>955.063000</v>
+        <v>955.06299999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.987700</v>
+        <v>-88.987700000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>72055.518224</v>
+        <v>72055.518223999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.015422</v>
+        <v>20.015422000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.066500</v>
+        <v>-80.066500000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>72065.778963</v>
+        <v>72065.778963000004</v>
       </c>
       <c r="AF3" s="1">
         <v>20.018272</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.813000</v>
+        <v>967.81299999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.569600</v>
+        <v>-79.569599999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>72076.312502</v>
+        <v>72076.312502000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.021198</v>
+        <v>20.021197999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.971000</v>
+        <v>975.971</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.348200</v>
+        <v>-87.348200000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>72086.594567</v>
+        <v>72086.594566999993</v>
       </c>
       <c r="AP3" s="1">
         <v>20.024054</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.251000</v>
+        <v>985.25099999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.138000</v>
+        <v>-102.13800000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>72097.517993</v>
+        <v>72097.517993000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.027088</v>
+        <v>20.027087999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.726000</v>
+        <v>996.726</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.428000</v>
+        <v>-123.428</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>72108.304522</v>
+        <v>72108.304522000006</v>
       </c>
       <c r="AZ3" s="1">
         <v>20.030085</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.958000</v>
+        <v>-141.958</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>72119.234300</v>
+        <v>72119.234299999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.033121</v>
+        <v>20.033121000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.703000</v>
+        <v>-225.703</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>72130.269790</v>
+        <v>72130.269790000006</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.036186</v>
+        <v>20.036186000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.514000</v>
+        <v>-359.51400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>72142.146990</v>
+        <v>72142.146989999994</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.039485</v>
+        <v>20.039484999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.840000</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-565.439000</v>
+        <v>-565.43899999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>72153.644255</v>
+        <v>72153.644255000007</v>
       </c>
       <c r="BT3" s="1">
         <v>20.042679</v>
       </c>
       <c r="BU3" s="1">
-        <v>1407.800000</v>
+        <v>1407.8</v>
       </c>
       <c r="BV3" s="1">
-        <v>-785.361000</v>
+        <v>-785.36099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>72164.690656</v>
+        <v>72164.690656000006</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.045747</v>
+        <v>20.045746999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1567.270000</v>
+        <v>1567.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1013.580000</v>
+        <v>-1013.58</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>72176.101121</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.048917</v>
+        <v>20.048916999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1968.040000</v>
+        <v>1968.04</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1548.760000</v>
+        <v>-1548.76</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>72003.976453</v>
+        <v>72003.976452999996</v>
       </c>
       <c r="B4" s="1">
-        <v>20.001105</v>
+        <v>20.001104999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.016000</v>
+        <v>904.01599999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.656000</v>
+        <v>-189.65600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>72014.410294</v>
+        <v>72014.410294000001</v>
       </c>
       <c r="G4" s="1">
-        <v>20.004003</v>
+        <v>20.004003000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.101000</v>
+        <v>920.101</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.988000</v>
+        <v>-160.988</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>72024.920522</v>
       </c>
       <c r="L4" s="1">
-        <v>20.006922</v>
+        <v>20.006921999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.737000</v>
+        <v>941.73699999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.768000</v>
+        <v>-116.768</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>72035.443643</v>
+        <v>72035.443643000006</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.009845</v>
+        <v>20.009844999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.377000</v>
+        <v>948.37699999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.141000</v>
+        <v>-102.14100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>72045.710165</v>
+        <v>72045.710164999997</v>
       </c>
       <c r="V4" s="1">
-        <v>20.012697</v>
+        <v>20.012696999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.023000</v>
+        <v>955.02300000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.009100</v>
+        <v>-89.009100000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>72055.967601</v>
+        <v>72055.967600999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.015547</v>
+        <v>20.015547000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.588000</v>
+        <v>962.58799999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.065400</v>
+        <v>-80.065399999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>72066.208506</v>
+        <v>72066.208505999995</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.018391</v>
+        <v>20.018391000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.828000</v>
+        <v>967.82799999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.627300</v>
+        <v>-79.627300000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>72076.633445</v>
+        <v>72076.633444999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.021287</v>
+        <v>20.021287000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.939000</v>
+        <v>975.93899999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.335900</v>
+        <v>-87.335899999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>72086.897166</v>
+        <v>72086.897165999995</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.024138</v>
+        <v>20.024138000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.250000</v>
+        <v>985.25</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.133000</v>
+        <v>-102.133</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>72097.899384</v>
+        <v>72097.899384000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.027194</v>
+        <v>20.027194000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.716000</v>
+        <v>996.71600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.438000</v>
+        <v>-123.438</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>72108.663069</v>
+        <v>72108.663069000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.030184</v>
+        <v>20.030183999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.370000</v>
+        <v>1006.37</v>
       </c>
       <c r="BB4" s="1">
-        <v>-141.975000</v>
+        <v>-141.97499999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>72119.923243</v>
+        <v>72119.923242999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.033312</v>
+        <v>20.033311999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.697000</v>
+        <v>-225.697</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>72131.019742</v>
+        <v>72131.019742000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.036394</v>
+        <v>20.036394000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.491000</v>
+        <v>-359.49099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>72142.564125</v>
+        <v>72142.564125000004</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.039601</v>
+        <v>20.039601000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.810000</v>
+        <v>1261.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-565.444000</v>
+        <v>-565.44399999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>72154.071806</v>
+        <v>72154.071806000007</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.042798</v>
+        <v>20.042798000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.800000</v>
+        <v>1407.8</v>
       </c>
       <c r="BV4" s="1">
-        <v>-785.282000</v>
+        <v>-785.28200000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>72165.124159</v>
+        <v>72165.124158999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.045868</v>
+        <v>20.045867999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1567.370000</v>
+        <v>1567.37</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1013.590000</v>
+        <v>-1013.59</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>72176.955232</v>
+        <v>72176.955231999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.049154</v>
+        <v>20.049154000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1968.730000</v>
+        <v>1968.73</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1547.360000</v>
+        <v>-1547.36</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>72004.331092</v>
+        <v>72004.331091999993</v>
       </c>
       <c r="B5" s="1">
         <v>20.001203</v>
       </c>
       <c r="C5" s="1">
-        <v>904.103000</v>
+        <v>904.10299999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.635000</v>
+        <v>-189.63499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72014.755014</v>
+        <v>72014.755013999995</v>
       </c>
       <c r="G5" s="1">
         <v>20.004099</v>
       </c>
       <c r="H5" s="1">
-        <v>919.911000</v>
+        <v>919.91099999999994</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.362000</v>
+        <v>-161.36199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>72025.266728</v>
+        <v>72025.266728000002</v>
       </c>
       <c r="L5" s="1">
         <v>20.007019</v>
       </c>
       <c r="M5" s="1">
-        <v>941.737000</v>
+        <v>941.73699999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.769000</v>
+        <v>-116.76900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>72035.796828</v>
+        <v>72035.796828000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.009944</v>
+        <v>20.009944000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.385000</v>
+        <v>948.38499999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>72046.143455</v>
+        <v>72046.143454999998</v>
       </c>
       <c r="V5" s="1">
-        <v>20.012818</v>
+        <v>20.012817999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.098000</v>
+        <v>955.09799999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.035000</v>
+        <v>-89.034999999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>72056.237919</v>
+        <v>72056.237919000007</v>
       </c>
       <c r="AA5" s="1">
         <v>20.015622</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.744000</v>
+        <v>962.74400000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.048100</v>
+        <v>-80.048100000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>72066.499155</v>
+        <v>72066.499154999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.018472</v>
+        <v>20.018471999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.808000</v>
+        <v>967.80799999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.678200</v>
+        <v>-79.678200000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>72076.986564</v>
+        <v>72076.986564000006</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.021385</v>
+        <v>20.021384999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.958000</v>
+        <v>975.95799999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.319500</v>
+        <v>-87.319500000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>72087.256436</v>
+        <v>72087.256435999996</v>
       </c>
       <c r="AP5" s="1">
         <v>20.024238</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.242000</v>
+        <v>985.24199999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>72098.265464</v>
+        <v>72098.265463999996</v>
       </c>
       <c r="AU5" s="1">
         <v>20.027296</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.696000</v>
+        <v>996.69600000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.433000</v>
+        <v>-123.43300000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>72109.377801</v>
+        <v>72109.377800999995</v>
       </c>
       <c r="AZ5" s="1">
         <v>20.030383</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB5" s="1">
-        <v>-141.950000</v>
+        <v>-141.94999999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>72120.315579</v>
+        <v>72120.315579000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.033421</v>
+        <v>20.033421000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.711000</v>
+        <v>-225.71100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>72131.396206</v>
+        <v>72131.396206000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.036499</v>
+        <v>20.036498999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.501000</v>
+        <v>-359.50099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>72142.959933</v>
+        <v>72142.959933000006</v>
       </c>
       <c r="BO5" s="1">
         <v>20.039711</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.790000</v>
+        <v>1261.79</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-565.458000</v>
+        <v>-565.45799999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>72154.800429</v>
+        <v>72154.800428999995</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.043000</v>
+        <v>20.042999999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1407.790000</v>
+        <v>1407.79</v>
       </c>
       <c r="BV5" s="1">
-        <v>-785.314000</v>
+        <v>-785.31399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>72165.861216</v>
+        <v>72165.861216000005</v>
       </c>
       <c r="BY5" s="1">
         <v>20.046073</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1567.300000</v>
+        <v>1567.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1013.520000</v>
+        <v>-1013.52</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>72177.187888</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.049219</v>
+        <v>20.049219000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1967.240000</v>
+        <v>1967.24</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1546.910000</v>
+        <v>-1546.91</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>72004.671356</v>
+        <v>72004.671356000006</v>
       </c>
       <c r="B6" s="1">
-        <v>20.001298</v>
+        <v>20.001297999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>903.885000</v>
+        <v>903.88499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.520000</v>
+        <v>-189.52</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>72015.100230</v>
+        <v>72015.100229999996</v>
       </c>
       <c r="G6" s="1">
-        <v>20.004195</v>
+        <v>20.004194999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.130000</v>
+        <v>920.13</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.534000</v>
+        <v>-161.53399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>72025.699272</v>
+        <v>72025.699271999998</v>
       </c>
       <c r="L6" s="1">
-        <v>20.007139</v>
+        <v>20.007138999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>941.612000</v>
+        <v>941.61199999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.691000</v>
+        <v>-116.691</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>72036.223354</v>
+        <v>72036.223354000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.010062</v>
+        <v>20.010062000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.356000</v>
+        <v>948.35599999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.167000</v>
+        <v>-102.167</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>72046.424610</v>
+        <v>72046.424610000002</v>
       </c>
       <c r="V6" s="1">
-        <v>20.012896</v>
+        <v>20.012896000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.190000</v>
+        <v>955.19</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.095900</v>
+        <v>-89.0959</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>72056.583632</v>
+        <v>72056.583631999994</v>
       </c>
       <c r="AA6" s="1">
         <v>20.015718</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.723000</v>
+        <v>962.72299999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.077100</v>
+        <v>-80.077100000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>72066.843377</v>
+        <v>72066.843376999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.018568</v>
+        <v>20.018567999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.834000</v>
+        <v>967.83399999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.622900</v>
+        <v>-79.622900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72077.332772</v>
+        <v>72077.332771999994</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.021481</v>
+        <v>20.021481000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.943000</v>
+        <v>975.94299999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.369800</v>
+        <v>-87.369799999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>72087.975925</v>
+        <v>72087.975925000006</v>
       </c>
       <c r="AP6" s="1">
         <v>20.024438</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.256000</v>
+        <v>985.25599999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.138000</v>
+        <v>-102.13800000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>72098.991575</v>
+        <v>72098.991574999993</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.027498</v>
+        <v>20.027498000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.718000</v>
+        <v>996.71799999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.421000</v>
+        <v>-123.42100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>72109.739880</v>
+        <v>72109.739879999994</v>
       </c>
       <c r="AZ6" s="1">
         <v>20.030483</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB6" s="1">
-        <v>-141.975000</v>
+        <v>-141.97499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>72120.694522</v>
+        <v>72120.694522000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.033526</v>
+        <v>20.033525999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.703000</v>
+        <v>-225.703</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>72131.771189</v>
+        <v>72131.771189000006</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.036603</v>
+        <v>20.036602999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.523000</v>
+        <v>-359.52300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>72143.700478</v>
+        <v>72143.700477999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.039917</v>
+        <v>20.039916999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-565.490000</v>
+        <v>-565.49</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>72154.915997</v>
+        <v>72154.915997000004</v>
       </c>
       <c r="BT6" s="1">
         <v>20.043032</v>
       </c>
       <c r="BU6" s="1">
-        <v>1407.750000</v>
+        <v>1407.75</v>
       </c>
       <c r="BV6" s="1">
-        <v>-785.396000</v>
+        <v>-785.39599999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>72165.996622</v>
+        <v>72165.996622000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.046110</v>
+        <v>20.046109999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1567.210000</v>
+        <v>1567.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1013.500000</v>
+        <v>-1013.5</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>72177.722544</v>
+        <v>72177.722544000004</v>
       </c>
       <c r="CD6" s="1">
         <v>20.049367</v>
       </c>
       <c r="CE6" s="1">
-        <v>1967.840000</v>
+        <v>1967.84</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1548.610000</v>
+        <v>-1548.61</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>72005.262578</v>
+        <v>72005.262577999994</v>
       </c>
       <c r="B7" s="1">
         <v>20.001462</v>
       </c>
       <c r="C7" s="1">
-        <v>903.944000</v>
+        <v>903.94399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.559000</v>
+        <v>-189.559</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>72015.533237</v>
+        <v>72015.533236999996</v>
       </c>
       <c r="G7" s="1">
-        <v>20.004315</v>
+        <v>20.004314999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>919.756000</v>
+        <v>919.75599999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.162000</v>
+        <v>-161.16200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>72025.960136</v>
+        <v>72025.960135999994</v>
       </c>
       <c r="L7" s="1">
-        <v>20.007211</v>
+        <v>20.007211000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>941.739000</v>
+        <v>941.73900000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.648000</v>
+        <v>-116.648</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>72036.493177</v>
+        <v>72036.493176999997</v>
       </c>
       <c r="Q7" s="1">
         <v>20.010137</v>
       </c>
       <c r="R7" s="1">
-        <v>948.359000</v>
+        <v>948.35900000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>72046.767806</v>
+        <v>72046.767806000003</v>
       </c>
       <c r="V7" s="1">
         <v>20.012991</v>
       </c>
       <c r="W7" s="1">
-        <v>955.059000</v>
+        <v>955.05899999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.065400</v>
+        <v>-89.065399999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>72056.933807</v>
+        <v>72056.933806999994</v>
       </c>
       <c r="AA7" s="1">
         <v>20.015815</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.671000</v>
+        <v>962.67100000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.047500</v>
+        <v>-80.047499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>72067.187105</v>
+        <v>72067.187105000005</v>
       </c>
       <c r="AF7" s="1">
         <v>20.018663</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.799000</v>
+        <v>967.79899999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.611100</v>
+        <v>-79.611099999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>72078.029162</v>
+        <v>72078.029162000006</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.021675</v>
+        <v>20.021674999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.943000</v>
+        <v>975.94299999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.360100</v>
+        <v>-87.360100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>72088.335525</v>
+        <v>72088.335525000002</v>
       </c>
       <c r="AP7" s="1">
         <v>20.024538</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.246000</v>
+        <v>985.24599999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.139000</v>
+        <v>-102.139</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>72099.386423</v>
+        <v>72099.386423000004</v>
       </c>
       <c r="AU7" s="1">
         <v>20.027607</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.720000</v>
+        <v>996.72</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.414000</v>
+        <v>-123.414</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>72110.098984</v>
+        <v>72110.098983999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>20.030583</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.370000</v>
+        <v>1006.37</v>
       </c>
       <c r="BB7" s="1">
-        <v>-141.968000</v>
+        <v>-141.96799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>72121.379037</v>
+        <v>72121.379037000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.033716</v>
+        <v>20.033715999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.703000</v>
+        <v>-225.703</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>72132.457675</v>
+        <v>72132.457674999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.036794</v>
       </c>
       <c r="BK7" s="1">
-        <v>1131.150000</v>
+        <v>1131.1500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.505000</v>
+        <v>-359.505</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>72144.199473</v>
+        <v>72144.199473000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.040055</v>
+        <v>20.040054999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.840000</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-565.502000</v>
+        <v>-565.50199999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>72155.350289</v>
+        <v>72155.350288999995</v>
       </c>
       <c r="BT7" s="1">
         <v>20.043153</v>
       </c>
       <c r="BU7" s="1">
-        <v>1407.740000</v>
+        <v>1407.74</v>
       </c>
       <c r="BV7" s="1">
-        <v>-785.327000</v>
+        <v>-785.327</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>72166.418720</v>
+        <v>72166.418720000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.046227</v>
+        <v>20.046226999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1567.260000</v>
+        <v>1567.26</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1013.510000</v>
+        <v>-1013.51</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>72178.259215</v>
+        <v>72178.259214999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.049516</v>
+        <v>20.049516000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1968.120000</v>
+        <v>1968.12</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1546.500000</v>
+        <v>-1546.5</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>72005.372691</v>
+        <v>72005.372690999997</v>
       </c>
       <c r="B8" s="1">
-        <v>20.001492</v>
+        <v>20.001491999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>904.122000</v>
+        <v>904.12199999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.530000</v>
+        <v>-189.53</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>72015.816454</v>
@@ -2038,255 +2454,255 @@
         <v>20.004393</v>
       </c>
       <c r="H8" s="1">
-        <v>919.944000</v>
+        <v>919.94399999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.182000</v>
+        <v>-161.18199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>72026.308327</v>
+        <v>72026.308327000006</v>
       </c>
       <c r="L8" s="1">
-        <v>20.007308</v>
+        <v>20.007307999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>941.537000</v>
+        <v>941.53700000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.807000</v>
+        <v>-116.807</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>72036.842857</v>
+        <v>72036.842856999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.010234</v>
+        <v>20.010234000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.359000</v>
+        <v>948.35900000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>72047.110085</v>
+        <v>72047.110084999993</v>
       </c>
       <c r="V8" s="1">
-        <v>20.013086</v>
+        <v>20.013086000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>955.029000</v>
+        <v>955.029</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.991900</v>
+        <v>-88.991900000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>72057.630686</v>
+        <v>72057.630686000004</v>
       </c>
       <c r="AA8" s="1">
         <v>20.016009</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.677000</v>
+        <v>962.67700000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.969800</v>
+        <v>-79.969800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>72067.871622</v>
+        <v>72067.871622000006</v>
       </c>
       <c r="AF8" s="1">
         <v>20.018853</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.839000</v>
+        <v>967.83900000000006</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.663700</v>
+        <v>-79.663700000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>72078.378370</v>
+        <v>72078.378370000006</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.021772</v>
+        <v>20.021771999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.946000</v>
+        <v>975.94600000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.337700</v>
+        <v>-87.337699999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>72088.694661</v>
+        <v>72088.694661000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.024637</v>
+        <v>20.024636999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.265000</v>
+        <v>985.26499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>72099.750951</v>
+        <v>72099.750950999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.027709</v>
+        <v>20.027709000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.706000</v>
+        <v>996.70600000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.407000</v>
+        <v>-123.407</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>72110.773581</v>
+        <v>72110.773581000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.030770</v>
+        <v>20.03077</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB8" s="1">
-        <v>-141.967000</v>
+        <v>-141.96700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>72121.779308</v>
+        <v>72121.779307999997</v>
       </c>
       <c r="BE8" s="1">
         <v>20.033828</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.720000</v>
+        <v>-225.72</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>72132.896602</v>
+        <v>72132.896601999993</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.036916</v>
+        <v>20.036916000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.540000</v>
+        <v>-359.54</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>72144.619051</v>
+        <v>72144.619051000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.040172</v>
+        <v>20.040171999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.830000</v>
+        <v>1261.83</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-565.494000</v>
+        <v>-565.49400000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>72155.781021</v>
+        <v>72155.781021000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.043273</v>
+        <v>20.043272999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV8" s="1">
-        <v>-785.241000</v>
+        <v>-785.24099999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>72166.867101</v>
+        <v>72166.867100999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.046352</v>
+        <v>20.046351999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1567.360000</v>
+        <v>1567.36</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1013.700000</v>
+        <v>-1013.7</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>72178.801342</v>
+        <v>72178.801342000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.049667</v>
+        <v>20.049666999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1966.880000</v>
+        <v>1966.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1548.420000</v>
+        <v>-1548.42</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>72005.708026</v>
+        <v>72005.708025999993</v>
       </c>
       <c r="B9" s="1">
         <v>20.001586</v>
       </c>
       <c r="C9" s="1">
-        <v>903.982000</v>
+        <v>903.98199999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.618000</v>
+        <v>-189.61799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>72016.160676</v>
@@ -2295,557 +2711,557 @@
         <v>20.004489</v>
       </c>
       <c r="H9" s="1">
-        <v>920.135000</v>
+        <v>920.13499999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.745000</v>
+        <v>-161.745</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>72026.654040</v>
+        <v>72026.654039999994</v>
       </c>
       <c r="L9" s="1">
-        <v>20.007404</v>
+        <v>20.007404000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.787000</v>
+        <v>941.78700000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.678000</v>
+        <v>-116.678</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>72037.195512</v>
+        <v>72037.195512000006</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.010332</v>
+        <v>20.010331999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>948.418000</v>
+        <v>948.41800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.130000</v>
+        <v>-102.13</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>72047.799515</v>
+        <v>72047.799515000006</v>
       </c>
       <c r="V9" s="1">
         <v>20.013278</v>
       </c>
       <c r="W9" s="1">
-        <v>954.924000</v>
+        <v>954.92399999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.927500</v>
+        <v>-88.927499999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>72057.976398</v>
+        <v>72057.976397999999</v>
       </c>
       <c r="AA9" s="1">
         <v>20.016105</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.709000</v>
+        <v>962.70899999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.063200</v>
+        <v>-80.063199999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>72068.217792</v>
+        <v>72068.217791999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.018949</v>
+        <v>20.018948999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.807000</v>
+        <v>967.80700000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.613700</v>
+        <v>-79.613699999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>72078.726034</v>
+        <v>72078.726034000007</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.021868</v>
+        <v>20.021868000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.955000</v>
+        <v>975.95500000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.394000</v>
+        <v>-87.394000000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>72089.378115</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.024827</v>
+        <v>20.024826999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.269000</v>
+        <v>985.26900000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>72100.420085</v>
+        <v>72100.420085000005</v>
       </c>
       <c r="AU9" s="1">
         <v>20.027894</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.711000</v>
+        <v>996.71100000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.425000</v>
+        <v>-123.425</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>72111.194151</v>
+        <v>72111.194151000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>20.030887</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.960000</v>
+        <v>-141.96</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>72122.163704</v>
+        <v>72122.163704000006</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.033934</v>
+        <v>20.033933999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.707000</v>
+        <v>-225.70699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>72133.271081</v>
+        <v>72133.271080999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.037020</v>
+        <v>20.037019999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.488000</v>
+        <v>-359.488</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>72145.014858</v>
+        <v>72145.014857999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.040282</v>
+        <v>20.040282000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.840000</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-565.479000</v>
+        <v>-565.47900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>72156.208076</v>
+        <v>72156.208075999995</v>
       </c>
       <c r="BT9" s="1">
         <v>20.043391</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.780000</v>
+        <v>1407.78</v>
       </c>
       <c r="BV9" s="1">
-        <v>-785.355000</v>
+        <v>-785.35500000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>72167.300108</v>
+        <v>72167.300107999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.046472</v>
+        <v>20.046472000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1567.310000</v>
+        <v>1567.31</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1013.600000</v>
+        <v>-1013.6</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>72179.339533</v>
+        <v>72179.339533000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.049817</v>
+        <v>20.049817000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1968.760000</v>
+        <v>1968.76</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1547.380000</v>
+        <v>-1547.38</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>72006.050753</v>
+        <v>72006.050753000003</v>
       </c>
       <c r="B10" s="1">
-        <v>20.001681</v>
+        <v>20.001681000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>903.916000</v>
+        <v>903.91600000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.506000</v>
+        <v>-189.506</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>72016.506885</v>
+        <v>72016.506884999995</v>
       </c>
       <c r="G10" s="1">
-        <v>20.004585</v>
+        <v>20.004584999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.291000</v>
+        <v>920.29100000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.278000</v>
+        <v>-161.27799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>72027.348439</v>
+        <v>72027.348438999994</v>
       </c>
       <c r="L10" s="1">
-        <v>20.007597</v>
+        <v>20.007597000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>941.680000</v>
+        <v>941.68</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.799000</v>
+        <v>-116.79900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>72037.892889</v>
+        <v>72037.892888999995</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.010526</v>
+        <v>20.010525999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>948.372000</v>
+        <v>948.37199999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>72048.141258</v>
+        <v>72048.141258000003</v>
       </c>
       <c r="V10" s="1">
-        <v>20.013373</v>
+        <v>20.013373000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>955.039000</v>
+        <v>955.03899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.020300</v>
+        <v>-89.020300000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>72058.327564</v>
+        <v>72058.327564000007</v>
       </c>
       <c r="AA10" s="1">
         <v>20.016202</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.648000</v>
+        <v>962.64800000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.015200</v>
+        <v>-80.015199999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>72068.548127</v>
+        <v>72068.548127000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.019041</v>
+        <v>20.019041000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.784000</v>
+        <v>967.78399999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.681600</v>
+        <v>-79.681600000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>72079.394145</v>
+        <v>72079.394144999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.022054</v>
+        <v>20.022054000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.969000</v>
+        <v>975.96900000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.358700</v>
+        <v>-87.358699999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>72089.804180</v>
+        <v>72089.804180000006</v>
       </c>
       <c r="AP10" s="1">
         <v>20.024946</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.259000</v>
+        <v>985.25900000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.115000</v>
+        <v>-102.11499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>72100.877365</v>
+        <v>72100.877364999993</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.028021</v>
+        <v>20.028020999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.713000</v>
+        <v>996.71299999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.425000</v>
+        <v>-123.425</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>72111.571638</v>
+        <v>72111.571637999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.030992</v>
+        <v>20.030992000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB10" s="1">
-        <v>-141.965000</v>
+        <v>-141.965</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>72122.548568</v>
+        <v>72122.548567999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.034041</v>
+        <v>20.034040999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.727000</v>
+        <v>-225.727</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>72133.648537</v>
+        <v>72133.648537000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.037125</v>
       </c>
       <c r="BK10" s="1">
-        <v>1131.130000</v>
+        <v>1131.1300000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.514000</v>
+        <v>-359.51400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>72145.440463</v>
+        <v>72145.440463000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.040400</v>
+        <v>20.040400000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.780000</v>
+        <v>1261.78</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-565.506000</v>
+        <v>-565.50599999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>72156.623755</v>
+        <v>72156.623754999993</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.043507</v>
+        <v>20.043507000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.730000</v>
+        <v>1407.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-785.343000</v>
+        <v>-785.34299999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>72167.722701</v>
+        <v>72167.722701000006</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.046590</v>
+        <v>20.046589999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1567.290000</v>
+        <v>1567.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1013.600000</v>
+        <v>-1013.6</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>72179.880636</v>
+        <v>72179.880636000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.049967</v>
+        <v>20.049966999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1967.130000</v>
+        <v>1967.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1547.460000</v>
+        <v>-1547.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>72006.733249</v>
+        <v>72006.733248999997</v>
       </c>
       <c r="B11" s="1">
-        <v>20.001870</v>
+        <v>20.00187</v>
       </c>
       <c r="C11" s="1">
-        <v>904.085000</v>
+        <v>904.08500000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.755000</v>
+        <v>-189.755</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>72017.200832</v>
+        <v>72017.200832000002</v>
       </c>
       <c r="G11" s="1">
-        <v>20.004778</v>
+        <v>20.004778000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>919.966000</v>
+        <v>919.96600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.644000</v>
+        <v>-161.64400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>72027.696629</v>
+        <v>72027.696628999998</v>
       </c>
       <c r="L11" s="1">
-        <v>20.007694</v>
+        <v>20.007694000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.653000</v>
+        <v>941.65300000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.640000</v>
+        <v>-116.64</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>72038.240583</v>
+        <v>72038.240583000006</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.010622</v>
+        <v>20.010622000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.361000</v>
+        <v>948.36099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>72048.485449</v>
@@ -2854,1343 +3270,1343 @@
         <v>20.013468</v>
       </c>
       <c r="W11" s="1">
-        <v>954.967000</v>
+        <v>954.96699999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.136200</v>
+        <v>-89.136200000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>72058.998188</v>
+        <v>72058.998187999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.016388</v>
+        <v>20.016387999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.613000</v>
+        <v>962.61300000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.029800</v>
+        <v>-80.029799999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>72069.223679</v>
+        <v>72069.223679000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.019229</v>
+        <v>20.019228999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.812000</v>
+        <v>967.81200000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.708200</v>
+        <v>-79.708200000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>72079.773710</v>
+        <v>72079.773709999994</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.022159</v>
+        <v>20.022158999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.933000</v>
+        <v>975.93299999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.348300</v>
+        <v>-87.348299999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>72090.176719</v>
+        <v>72090.176718999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.025049</v>
+        <v>20.025048999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.250000</v>
+        <v>985.25</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.134000</v>
+        <v>-102.134</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>72101.241430</v>
+        <v>72101.241429999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.028123</v>
+        <v>20.028123000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.713000</v>
+        <v>996.71299999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.443000</v>
+        <v>-123.443</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>72111.931206</v>
+        <v>72111.931205999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.031092</v>
+        <v>20.031092000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB11" s="1">
-        <v>-141.954000</v>
+        <v>-141.95400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>72122.970701</v>
+        <v>72122.970700999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.034159</v>
+        <v>20.034158999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.729000</v>
+        <v>-225.72900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>72134.078568</v>
+        <v>72134.078567999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.037244</v>
+        <v>20.037244000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.515000</v>
+        <v>-359.51499999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>72145.835275</v>
+        <v>72145.835275000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.040510</v>
+        <v>20.040510000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.830000</v>
+        <v>1261.83</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-565.532000</v>
+        <v>-565.53200000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>72157.052300</v>
+        <v>72157.052299999996</v>
       </c>
       <c r="BT11" s="1">
         <v>20.043626</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.760000</v>
+        <v>1407.76</v>
       </c>
       <c r="BV11" s="1">
-        <v>-785.361000</v>
+        <v>-785.36099999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>72168.141820</v>
+        <v>72168.141820000004</v>
       </c>
       <c r="BY11" s="1">
         <v>20.046706</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1567.380000</v>
+        <v>1567.38</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1013.620000</v>
+        <v>-1013.62</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>72180.422763</v>
+        <v>72180.422762999995</v>
       </c>
       <c r="CD11" s="1">
         <v>20.050117</v>
       </c>
       <c r="CE11" s="1">
-        <v>1968.290000</v>
+        <v>1968.29</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1548.590000</v>
+        <v>-1548.59</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>72007.074465</v>
+        <v>72007.074464999998</v>
       </c>
       <c r="B12" s="1">
-        <v>20.001965</v>
+        <v>20.001964999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>903.959000</v>
+        <v>903.95899999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.617000</v>
+        <v>-189.61699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>72017.550962</v>
+        <v>72017.550961999994</v>
       </c>
       <c r="G12" s="1">
-        <v>20.004875</v>
+        <v>20.004874999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>919.855000</v>
+        <v>919.85500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.601000</v>
+        <v>-161.601</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>72028.043863</v>
+        <v>72028.043862999999</v>
       </c>
       <c r="L12" s="1">
-        <v>20.007790</v>
+        <v>20.00779</v>
       </c>
       <c r="M12" s="1">
-        <v>941.773000</v>
+        <v>941.77300000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.749000</v>
+        <v>-116.749</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>72038.898774</v>
+        <v>72038.898774000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.010805</v>
+        <v>20.010805000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.346000</v>
+        <v>948.346</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.115000</v>
+        <v>-102.11499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>72049.161530</v>
+        <v>72049.161529999998</v>
       </c>
       <c r="V12" s="1">
-        <v>20.013656</v>
+        <v>20.013656000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.945000</v>
+        <v>954.94500000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.134100</v>
+        <v>-89.134100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>72059.374155</v>
+        <v>72059.374154999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.016493</v>
+        <v>20.016493000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.558000</v>
+        <v>962.55799999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.032000</v>
+        <v>-80.031999999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>72069.596174</v>
+        <v>72069.596174000006</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.019332</v>
+        <v>20.019331999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.783000</v>
+        <v>967.78300000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.636300</v>
+        <v>-79.636300000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>72080.122768</v>
+        <v>72080.122768000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.022256</v>
+        <v>20.022255999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.951000</v>
+        <v>975.95100000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.381300</v>
+        <v>-87.381299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>72090.530360</v>
+        <v>72090.530360000004</v>
       </c>
       <c r="AP12" s="1">
         <v>20.025147</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.267000</v>
+        <v>985.26700000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.119000</v>
+        <v>-102.119</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>72101.609459</v>
+        <v>72101.609458999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.028225</v>
+        <v>20.028224999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.707000</v>
+        <v>996.70699999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.425000</v>
+        <v>-123.425</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>72112.351318</v>
+        <v>72112.351318000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>20.031209</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.370000</v>
+        <v>1006.37</v>
       </c>
       <c r="BB12" s="1">
-        <v>-141.953000</v>
+        <v>-141.953</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>72123.270783</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.034242</v>
+        <v>20.034241999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.694000</v>
+        <v>-225.69399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>72134.404936</v>
+        <v>72134.404936000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.037335</v>
+        <v>20.037334999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1131.170000</v>
+        <v>1131.17</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.532000</v>
+        <v>-359.53199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>72146.253897</v>
+        <v>72146.253897000002</v>
       </c>
       <c r="BO12" s="1">
         <v>20.040626</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.830000</v>
+        <v>1261.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-565.482000</v>
+        <v>-565.48199999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>72157.461963</v>
+        <v>72157.461962999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.043739</v>
+        <v>20.043738999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.800000</v>
+        <v>1407.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-785.313000</v>
+        <v>-785.31299999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>72168.904172</v>
+        <v>72168.904171999995</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.046918</v>
+        <v>20.046918000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1567.350000</v>
+        <v>1567.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1013.510000</v>
+        <v>-1013.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>72180.960464</v>
+        <v>72180.960464000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.050267</v>
+        <v>20.050267000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1967.530000</v>
+        <v>1967.53</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1546.550000</v>
+        <v>-1546.55</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>72007.413232</v>
+        <v>72007.413232000006</v>
       </c>
       <c r="B13" s="1">
-        <v>20.002059</v>
+        <v>20.002058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>904.056000</v>
+        <v>904.05600000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.596000</v>
+        <v>-189.596</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72017.898691</v>
+        <v>72017.898690999995</v>
       </c>
       <c r="G13" s="1">
-        <v>20.004972</v>
+        <v>20.004971999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>919.793000</v>
+        <v>919.79300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.018000</v>
+        <v>-161.018</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>72028.704004</v>
+        <v>72028.704003999999</v>
       </c>
       <c r="L13" s="1">
         <v>20.007973</v>
       </c>
       <c r="M13" s="1">
-        <v>941.748000</v>
+        <v>941.74800000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.733000</v>
+        <v>-116.733</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>72039.285656</v>
+        <v>72039.285655999993</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.010913</v>
+        <v>20.010912999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>948.366000</v>
+        <v>948.36599999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.106000</v>
+        <v>-102.10599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>72049.523080</v>
+        <v>72049.523079999999</v>
       </c>
       <c r="V13" s="1">
-        <v>20.013756</v>
+        <v>20.013756000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.036000</v>
+        <v>955.03599999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.082400</v>
+        <v>-89.082400000000007</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>72059.722314</v>
+        <v>72059.722313999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.016590</v>
+        <v>20.016590000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.628000</v>
+        <v>962.62800000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.996500</v>
+        <v>-79.996499999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>72069.931011</v>
+        <v>72069.931010999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.019425</v>
+        <v>20.019424999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.802000</v>
+        <v>967.80200000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.643500</v>
+        <v>-79.643500000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>72080.476912</v>
+        <v>72080.476911999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.022355</v>
+        <v>20.022355000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.946000</v>
+        <v>975.94600000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.343800</v>
+        <v>-87.343800000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>72090.949969</v>
+        <v>72090.949968999994</v>
       </c>
       <c r="AP13" s="1">
         <v>20.025264</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.264000</v>
+        <v>985.26400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.116000</v>
+        <v>-102.116</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>72102.030563</v>
+        <v>72102.030562999993</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.028342</v>
+        <v>20.028341999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.716000</v>
+        <v>996.71600000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.459000</v>
+        <v>-123.459</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>72112.647429</v>
+        <v>72112.647429000004</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.031291</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB13" s="1">
-        <v>-141.977000</v>
+        <v>-141.977</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>72123.630344</v>
+        <v>72123.630344000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.034342</v>
+        <v>20.034341999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.726000</v>
+        <v>-225.726</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>72134.791815</v>
+        <v>72134.791815000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.037442</v>
+        <v>20.037441999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.499000</v>
+        <v>-359.49900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>72146.653144</v>
+        <v>72146.653143999996</v>
       </c>
       <c r="BO13" s="1">
         <v>20.040737</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-565.485000</v>
+        <v>-565.48500000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>72157.893482</v>
+        <v>72157.893481999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.043859</v>
+        <v>20.043859000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.750000</v>
+        <v>1407.75</v>
       </c>
       <c r="BV13" s="1">
-        <v>-785.394000</v>
+        <v>-785.39400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>72169.421034</v>
+        <v>72169.421033999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.047061</v>
+        <v>20.047060999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1567.290000</v>
+        <v>1567.29</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1013.720000</v>
+        <v>-1013.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>72181.502058</v>
+        <v>72181.502057999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.050417</v>
+        <v>20.050416999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1967.390000</v>
+        <v>1967.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1548.800000</v>
+        <v>-1548.8</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>72008.080226</v>
+        <v>72008.080226000005</v>
       </c>
       <c r="B14" s="1">
-        <v>20.002245</v>
+        <v>20.002244999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>903.941000</v>
+        <v>903.94100000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.637000</v>
+        <v>-189.637</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72018.553917</v>
+        <v>72018.553916999997</v>
       </c>
       <c r="G14" s="1">
-        <v>20.005154</v>
+        <v>20.005154000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.971000</v>
+        <v>919.971</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.623000</v>
+        <v>-161.62299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>72029.080963</v>
       </c>
       <c r="L14" s="1">
-        <v>20.008078</v>
+        <v>20.008078000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.659000</v>
+        <v>941.65899999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.643000</v>
+        <v>-116.643</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>72039.633845</v>
+        <v>72039.633845000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.011009</v>
+        <v>20.011009000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.422000</v>
+        <v>948.42200000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.116000</v>
+        <v>-102.116</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>72049.868298</v>
+        <v>72049.868298000001</v>
       </c>
       <c r="V14" s="1">
         <v>20.013852</v>
       </c>
       <c r="W14" s="1">
-        <v>955.012000</v>
+        <v>955.01199999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.166100</v>
+        <v>-89.1661</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>72060.071002</v>
+        <v>72060.071001999997</v>
       </c>
       <c r="AA14" s="1">
         <v>20.016686</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.580000</v>
+        <v>962.58</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.035000</v>
+        <v>-80.034999999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>72070.281645</v>
+        <v>72070.281644999995</v>
       </c>
       <c r="AF14" s="1">
         <v>20.019523</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.812000</v>
+        <v>967.81200000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.631700</v>
+        <v>-79.631699999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72080.909920</v>
+        <v>72080.909920000006</v>
       </c>
       <c r="AK14" s="1">
         <v>20.022475</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.935000</v>
+        <v>975.93499999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.369700</v>
+        <v>-87.369699999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>72091.247539</v>
+        <v>72091.247539000004</v>
       </c>
       <c r="AP14" s="1">
         <v>20.025347</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.270000</v>
+        <v>985.27</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.140000</v>
+        <v>-102.14</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>72102.336099</v>
+        <v>72102.336098999993</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.028427</v>
+        <v>20.028427000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.720000</v>
+        <v>996.72</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.418000</v>
+        <v>-123.41800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>72113.008020</v>
+        <v>72113.008019999994</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.031391</v>
+        <v>20.031390999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.965000</v>
+        <v>-141.965</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>72123.992455</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.034442</v>
+        <v>20.034441999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.704000</v>
+        <v>-225.70400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>72135.159847</v>
+        <v>72135.159847000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.037544</v>
       </c>
       <c r="BK14" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.527000</v>
+        <v>-359.52699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>72147.093096</v>
+        <v>72147.093095999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.040859</v>
+        <v>20.040859000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.820000</v>
+        <v>1261.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-565.498000</v>
+        <v>-565.49800000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>72158.321040</v>
+        <v>72158.321039999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.043978</v>
+        <v>20.043977999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1407.820000</v>
+        <v>1407.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-785.343000</v>
+        <v>-785.34299999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>72169.852026</v>
+        <v>72169.852025999993</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.047181</v>
+        <v>20.047180999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1567.290000</v>
+        <v>1567.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1013.630000</v>
+        <v>-1013.63</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>72182.039721</v>
+        <v>72182.039720999994</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.050567</v>
+        <v>20.050567000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1968.360000</v>
+        <v>1968.36</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1546.690000</v>
+        <v>-1546.69</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>72008.439455</v>
       </c>
       <c r="B15" s="1">
-        <v>20.002344</v>
+        <v>20.002344000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>904.030000</v>
+        <v>904.03</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.619000</v>
+        <v>-189.619</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>72018.929841</v>
+        <v>72018.929841000005</v>
       </c>
       <c r="G15" s="1">
-        <v>20.005258</v>
+        <v>20.005258000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>920.041000</v>
+        <v>920.04100000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.165000</v>
+        <v>-161.16499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>72029.429652</v>
+        <v>72029.429652000006</v>
       </c>
       <c r="L15" s="1">
-        <v>20.008175</v>
+        <v>20.008175000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.678000</v>
+        <v>941.678</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.741000</v>
+        <v>-116.741</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>72039.982037</v>
+        <v>72039.982036999994</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.011106</v>
+        <v>20.011106000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>948.391000</v>
+        <v>948.39099999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.161000</v>
+        <v>-102.161</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>72050.215495</v>
+        <v>72050.215494999997</v>
       </c>
       <c r="V15" s="1">
         <v>20.013949</v>
       </c>
       <c r="W15" s="1">
-        <v>955.002000</v>
+        <v>955.00199999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.099100</v>
+        <v>-89.099100000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>72060.500538</v>
+        <v>72060.500537999993</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.016806</v>
+        <v>20.016805999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.615000</v>
+        <v>962.61500000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.046700</v>
+        <v>-80.046700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>72070.971580</v>
+        <v>72070.971579999998</v>
       </c>
       <c r="AF15" s="1">
         <v>20.019714</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.762000</v>
+        <v>967.76199999999994</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.593500</v>
+        <v>-79.593500000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>72081.179246</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.022550</v>
+        <v>20.022549999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.959000</v>
+        <v>975.95899999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.360100</v>
+        <v>-87.360100000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>72091.609618</v>
+        <v>72091.609618000002</v>
       </c>
       <c r="AP15" s="1">
         <v>20.025447</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.257000</v>
+        <v>985.25699999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>72102.701650</v>
+        <v>72102.701650000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.028528</v>
+        <v>20.028528000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.717000</v>
+        <v>996.71699999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.420000</v>
+        <v>-123.42</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>72113.367620</v>
+        <v>72113.367620000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.031491</v>
+        <v>20.031490999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB15" s="1">
-        <v>-141.992000</v>
+        <v>-141.99199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>72124.712117</v>
+        <v>72124.712117000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.034642</v>
+        <v>20.034642000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.739000</v>
+        <v>-225.739</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>72135.920710</v>
+        <v>72135.920710000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.037756</v>
+        <v>20.037756000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1131.170000</v>
+        <v>1131.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.509000</v>
+        <v>-359.50900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>72147.470551</v>
+        <v>72147.470551000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.040964</v>
+        <v>20.040963999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.840000</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-565.517000</v>
+        <v>-565.51700000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>72158.734200</v>
+        <v>72158.734200000006</v>
       </c>
       <c r="BT15" s="1">
         <v>20.044093</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.870000</v>
+        <v>1407.87</v>
       </c>
       <c r="BV15" s="1">
-        <v>-785.323000</v>
+        <v>-785.32299999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>72170.591064</v>
+        <v>72170.591063999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.047386</v>
+        <v>20.047385999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1567.300000</v>
+        <v>1567.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1013.510000</v>
+        <v>-1013.51</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>72182.897913</v>
+        <v>72182.897912999993</v>
       </c>
       <c r="CD15" s="1">
         <v>20.050805</v>
       </c>
       <c r="CE15" s="1">
-        <v>1968.460000</v>
+        <v>1968.46</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1548.670000</v>
+        <v>-1548.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>72008.781198</v>
+        <v>72008.781197999997</v>
       </c>
       <c r="B16" s="1">
-        <v>20.002439</v>
+        <v>20.002438999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.114000</v>
+        <v>904.11400000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.590000</v>
+        <v>-189.59</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>72019.274563</v>
+        <v>72019.274562999999</v>
       </c>
       <c r="G16" s="1">
-        <v>20.005354</v>
+        <v>20.005354000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>919.883000</v>
+        <v>919.88300000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.414000</v>
+        <v>-161.41399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>72029.773379</v>
+        <v>72029.773379000006</v>
       </c>
       <c r="L16" s="1">
-        <v>20.008270</v>
+        <v>20.00827</v>
       </c>
       <c r="M16" s="1">
-        <v>941.615000</v>
+        <v>941.61500000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.641000</v>
+        <v>-116.64100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>72040.414090</v>
+        <v>72040.414090000006</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.011226</v>
+        <v>20.011226000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.383000</v>
+        <v>948.38300000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.175000</v>
+        <v>-102.175</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>72050.648999</v>
+        <v>72050.648998999997</v>
       </c>
       <c r="V16" s="1">
-        <v>20.014069</v>
+        <v>20.014068999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.048000</v>
+        <v>955.048</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.110500</v>
+        <v>-89.110500000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>72060.781275</v>
+        <v>72060.781275000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.016884</v>
+        <v>20.016884000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.637000</v>
+        <v>962.63699999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.060900</v>
+        <v>-80.060900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>72071.320267</v>
+        <v>72071.320267000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.019811</v>
+        <v>20.019811000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.802000</v>
+        <v>967.80200000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.650600</v>
+        <v>-79.650599999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>72081.525487</v>
+        <v>72081.525487000006</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.022646</v>
+        <v>20.022646000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.970000</v>
+        <v>975.97</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.344200</v>
+        <v>-87.344200000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>72091.970705</v>
@@ -4199,679 +4615,679 @@
         <v>20.025547</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.248000</v>
+        <v>985.24800000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.109000</v>
+        <v>-102.10899999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>72103.277505</v>
+        <v>72103.277505000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.028688</v>
+        <v>20.028687999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.705000</v>
+        <v>996.70500000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.429000</v>
+        <v>-123.429</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>72114.085363</v>
+        <v>72114.085363000006</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.031690</v>
+        <v>20.031690000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.963000</v>
+        <v>-141.96299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>72125.101972</v>
+        <v>72125.101972000004</v>
       </c>
       <c r="BE16" s="1">
         <v>20.034751</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.710000</v>
+        <v>-225.71</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>72136.295190</v>
+        <v>72136.295190000004</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.037860</v>
+        <v>20.037859999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.499000</v>
+        <v>-359.49900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>72147.889175</v>
+        <v>72147.889175000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.041080</v>
+        <v>20.041080000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.860000</v>
+        <v>1261.8599999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-565.502000</v>
+        <v>-565.50199999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>72159.480185</v>
+        <v>72159.480184999993</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.044300</v>
+        <v>20.0443</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-785.279000</v>
+        <v>-785.279</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>72170.722008</v>
+        <v>72170.722007999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.047423</v>
+        <v>20.047422999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1567.320000</v>
+        <v>1567.32</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1013.490000</v>
+        <v>-1013.49</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>72183.118024</v>
+        <v>72183.118023999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.050866</v>
+        <v>20.050865999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1968.220000</v>
+        <v>1968.22</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1548.540000</v>
+        <v>-1548.54</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>72009.122478</v>
+        <v>72009.122478000005</v>
       </c>
       <c r="B17" s="1">
-        <v>20.002534</v>
+        <v>20.002534000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>903.871000</v>
+        <v>903.87099999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.653000</v>
+        <v>-189.65299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>72019.621761</v>
+        <v>72019.621761000002</v>
       </c>
       <c r="G17" s="1">
-        <v>20.005450</v>
+        <v>20.00545</v>
       </c>
       <c r="H17" s="1">
-        <v>920.231000</v>
+        <v>920.23099999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.167000</v>
+        <v>-161.167</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>72030.207378</v>
+        <v>72030.207378000006</v>
       </c>
       <c r="L17" s="1">
         <v>20.008391</v>
       </c>
       <c r="M17" s="1">
-        <v>941.695000</v>
+        <v>941.69500000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.758000</v>
+        <v>-116.758</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>72040.678916</v>
+        <v>72040.678916000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.011300</v>
+        <v>20.011299999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.357000</v>
+        <v>948.35699999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.159000</v>
+        <v>-102.15900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>72050.913366</v>
+        <v>72050.913365999993</v>
       </c>
       <c r="V17" s="1">
-        <v>20.014143</v>
+        <v>20.014143000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.938000</v>
+        <v>954.93799999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.111800</v>
+        <v>-89.111800000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>72061.131945</v>
+        <v>72061.131945000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.016981</v>
+        <v>20.016981000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.711000</v>
+        <v>962.71100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.966100</v>
+        <v>-79.966099999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>72071.662549</v>
+        <v>72071.662549000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.019906</v>
+        <v>20.019905999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.853000</v>
+        <v>967.85299999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.642600</v>
+        <v>-79.642600000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>72081.877614</v>
+        <v>72081.877613999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.022744</v>
+        <v>20.022743999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.936000</v>
+        <v>975.93600000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.352300</v>
+        <v>-87.3523</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>72092.689904</v>
+        <v>72092.689903999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.025747</v>
+        <v>20.025746999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.266000</v>
+        <v>985.26599999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>72103.428785</v>
+        <v>72103.428784999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.028730</v>
+        <v>20.028729999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.709000</v>
+        <v>996.70899999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.425000</v>
+        <v>-123.425</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>72114.444434</v>
+        <v>72114.444434000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.031790</v>
+        <v>20.031790000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB17" s="1">
-        <v>-141.980000</v>
+        <v>-141.97999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>72125.482900</v>
+        <v>72125.482900000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.034856</v>
+        <v>20.034856000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.727000</v>
+        <v>-225.727</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>72137.000501</v>
+        <v>72137.000501000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.038056</v>
+        <v>20.038056000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.150000</v>
+        <v>1131.1500000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.496000</v>
+        <v>-359.49599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>72148.601958</v>
+        <v>72148.601957999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.041278</v>
+        <v>20.041277999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.840000</v>
+        <v>1261.8399999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-565.477000</v>
+        <v>-565.47699999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>72159.593767</v>
+        <v>72159.593766999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.044332</v>
+        <v>20.044332000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.940000</v>
+        <v>1407.94</v>
       </c>
       <c r="BV17" s="1">
-        <v>-785.326000</v>
+        <v>-785.32600000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>72171.148087</v>
+        <v>72171.148086999994</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.047541</v>
+        <v>20.047540999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1567.310000</v>
+        <v>1567.31</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1013.630000</v>
+        <v>-1013.63</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>72183.638824</v>
+        <v>72183.638823999994</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.051011</v>
+        <v>20.051010999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1968.770000</v>
+        <v>1968.77</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1547.160000</v>
+        <v>-1547.16</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>72009.546627</v>
+        <v>72009.546627000003</v>
       </c>
       <c r="B18" s="1">
-        <v>20.002652</v>
+        <v>20.002652000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>903.922000</v>
+        <v>903.92200000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.707000</v>
+        <v>-189.70699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>72020.056257</v>
+        <v>72020.056257000004</v>
       </c>
       <c r="G18" s="1">
         <v>20.005571</v>
       </c>
       <c r="H18" s="1">
-        <v>919.574000</v>
+        <v>919.57399999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.586000</v>
+        <v>-161.58600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>72030.476210</v>
+        <v>72030.476209999993</v>
       </c>
       <c r="L18" s="1">
-        <v>20.008466</v>
+        <v>20.008465999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>941.766000</v>
+        <v>941.76599999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.595000</v>
+        <v>-116.595</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>72041.032597</v>
+        <v>72041.032596999998</v>
       </c>
       <c r="Q18" s="1">
         <v>20.011398</v>
       </c>
       <c r="R18" s="1">
-        <v>948.345000</v>
+        <v>948.34500000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.115000</v>
+        <v>-102.11499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>72051.246678</v>
+        <v>72051.246677999996</v>
       </c>
       <c r="V18" s="1">
-        <v>20.014235</v>
+        <v>20.014234999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>955.039000</v>
+        <v>955.03899999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.916700</v>
+        <v>-88.916700000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>72061.475339</v>
+        <v>72061.475338999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.017076</v>
+        <v>20.017075999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.660000</v>
+        <v>962.66</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.009600</v>
+        <v>-80.009600000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>72072.346986</v>
+        <v>72072.346986000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.020096</v>
+        <v>20.020095999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.007000</v>
+        <v>968.00699999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.539100</v>
+        <v>-79.539100000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>72082.573997</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.022937</v>
+        <v>20.022936999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.970000</v>
+        <v>975.97</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.386100</v>
+        <v>-87.386099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>72093.050008</v>
+        <v>72093.050008000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.025847</v>
+        <v>20.025846999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.243000</v>
+        <v>985.24300000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>72103.825584</v>
+        <v>72103.825584000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.028840</v>
+        <v>20.028839999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.718000</v>
+        <v>996.71799999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.423000</v>
+        <v>-123.423</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>72114.804532</v>
+        <v>72114.804531999995</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.031890</v>
+        <v>20.031890000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB18" s="1">
-        <v>-141.962000</v>
+        <v>-141.96199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>72126.175315</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.035049</v>
+        <v>20.035049000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.706000</v>
+        <v>-225.70599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>72137.444916</v>
+        <v>72137.444915999993</v>
       </c>
       <c r="BJ18" s="1">
         <v>20.038179</v>
       </c>
       <c r="BK18" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.522000</v>
+        <v>-359.52199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>72148.723954</v>
+        <v>72148.723954000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.041312</v>
+        <v>20.041312000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.810000</v>
+        <v>1261.81</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-565.505000</v>
+        <v>-565.505</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>72160.031238</v>
+        <v>72160.031237999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.044453</v>
+        <v>20.044453000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.880000</v>
+        <v>1407.88</v>
       </c>
       <c r="BV18" s="1">
-        <v>-785.301000</v>
+        <v>-785.30100000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>72171.565702</v>
+        <v>72171.565702000007</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.047657</v>
+        <v>20.047657000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1567.410000</v>
+        <v>1567.41</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1013.540000</v>
+        <v>-1013.54</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>72184.158630</v>
+        <v>72184.158630000005</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.051155</v>
+        <v>20.051155000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1968.880000</v>
+        <v>1968.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1547.660000</v>
+        <v>-1547.66</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>72009.834701</v>
       </c>
       <c r="B19" s="1">
-        <v>20.002732</v>
+        <v>20.002732000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>903.975000</v>
+        <v>903.97500000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.640000</v>
+        <v>-189.64</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>72020.336528</v>
       </c>
       <c r="G19" s="1">
-        <v>20.005649</v>
+        <v>20.005648999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>920.104000</v>
+        <v>920.10400000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.404000</v>
+        <v>-161.404</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>72030.819441</v>
@@ -4880,148 +5296,148 @@
         <v>20.008561</v>
       </c>
       <c r="M19" s="1">
-        <v>941.650000</v>
+        <v>941.65</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.725000</v>
+        <v>-116.72499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>72041.378275</v>
+        <v>72041.378274999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.011494</v>
+        <v>20.011493999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.404000</v>
+        <v>948.404</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>72051.599333</v>
+        <v>72051.599333000006</v>
       </c>
       <c r="V19" s="1">
-        <v>20.014333</v>
+        <v>20.014333000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.097000</v>
+        <v>955.09699999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.134300</v>
+        <v>-89.134299999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>72062.172584</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.017270</v>
+        <v>20.01727</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.637000</v>
+        <v>962.63699999999994</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.960800</v>
+        <v>-79.960800000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>72072.688234</v>
+        <v>72072.688234000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.020191</v>
+        <v>20.020191000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.912000</v>
+        <v>967.91200000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.592900</v>
+        <v>-79.5929</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>72082.923481</v>
+        <v>72082.923481000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.023034</v>
+        <v>20.023033999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.951000</v>
+        <v>975.95100000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.340400</v>
+        <v>-87.340400000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>72093.411582</v>
+        <v>72093.411582000001</v>
       </c>
       <c r="AP19" s="1">
         <v>20.025948</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.262000</v>
+        <v>985.26199999999994</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.113000</v>
+        <v>-102.113</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>72104.505627</v>
+        <v>72104.505627000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.029029</v>
+        <v>20.029029000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.731000</v>
+        <v>996.73099999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.450000</v>
+        <v>-123.45</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>72115.483553</v>
+        <v>72115.483552999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>20.032079</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB19" s="1">
-        <v>-141.964000</v>
+        <v>-141.964</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>72126.565203</v>
+        <v>72126.565203000006</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.035157</v>
+        <v>20.035157000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.709000</v>
+        <v>-225.709</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>72137.820387</v>
@@ -5030,1647 +5446,1647 @@
         <v>20.038283</v>
       </c>
       <c r="BK19" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.507000</v>
+        <v>-359.50700000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>72149.133653</v>
+        <v>72149.133652999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.041426</v>
+        <v>20.041426000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-565.515000</v>
+        <v>-565.51499999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>72160.443910</v>
+        <v>72160.443910000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.044568</v>
+        <v>20.044568000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV19" s="1">
-        <v>-785.286000</v>
+        <v>-785.28599999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>72172.012600</v>
+        <v>72172.012600000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.047781</v>
+        <v>20.047781000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1567.300000</v>
+        <v>1567.3</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1013.560000</v>
+        <v>-1013.56</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>72184.705719</v>
+        <v>72184.705719000005</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.051307</v>
+        <v>20.051307000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1968.660000</v>
+        <v>1968.66</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1548.440000</v>
+        <v>-1548.44</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>72010.186892</v>
+        <v>72010.186891999998</v>
       </c>
       <c r="B20" s="1">
-        <v>20.002830</v>
+        <v>20.002829999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>904.037000</v>
+        <v>904.03700000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.610000</v>
+        <v>-189.61</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72020.678899</v>
+        <v>72020.678899000006</v>
       </c>
       <c r="G20" s="1">
         <v>20.005744</v>
       </c>
       <c r="H20" s="1">
-        <v>920.037000</v>
+        <v>920.03700000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.138000</v>
+        <v>-161.13800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>72031.168657</v>
+        <v>72031.168657000002</v>
       </c>
       <c r="L20" s="1">
         <v>20.008658</v>
       </c>
       <c r="M20" s="1">
-        <v>941.644000</v>
+        <v>941.64400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.643000</v>
+        <v>-116.643</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>72042.075650</v>
+        <v>72042.075649999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.011688</v>
+        <v>20.011687999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.396000</v>
+        <v>948.39599999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>72052.285798</v>
+        <v>72052.285797999997</v>
       </c>
       <c r="V20" s="1">
-        <v>20.014524</v>
+        <v>20.014524000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>954.970000</v>
+        <v>954.97</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.169100</v>
+        <v>-89.1691</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>72062.523719</v>
+        <v>72062.523719000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.017368</v>
+        <v>20.017368000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.600000</v>
+        <v>962.6</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.987700</v>
+        <v>-79.987700000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>72073.032489</v>
+        <v>72073.032489000005</v>
       </c>
       <c r="AF20" s="1">
         <v>20.020287</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.937000</v>
+        <v>967.93700000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.714800</v>
+        <v>-79.714799999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>72083.271372</v>
+        <v>72083.271372000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.023131</v>
+        <v>20.023130999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.949000</v>
+        <v>975.94899999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.360600</v>
+        <v>-87.360600000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>72094.081710</v>
+        <v>72094.081709999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.026134</v>
+        <v>20.026133999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.261000</v>
+        <v>985.26099999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.138000</v>
+        <v>-102.13800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>72104.952031</v>
+        <v>72104.952030999993</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.029153</v>
+        <v>20.029153000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.734000</v>
+        <v>996.73400000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.426000</v>
+        <v>-123.426</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>72115.880848</v>
+        <v>72115.880848000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.032189</v>
+        <v>20.032188999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.969000</v>
+        <v>-141.96899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>72126.925775</v>
+        <v>72126.925774999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.035257</v>
+        <v>20.035257000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.695000</v>
+        <v>-225.69499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>72138.199363</v>
+        <v>72138.199363000007</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.038389</v>
+        <v>20.038388999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.519000</v>
+        <v>-359.51900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>72149.531460</v>
+        <v>72149.531459999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.041537</v>
+        <v>20.041537000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.810000</v>
+        <v>1261.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-565.552000</v>
+        <v>-565.55200000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>72160.861574</v>
+        <v>72160.861573999995</v>
       </c>
       <c r="BT20" s="1">
         <v>20.044684</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.970000</v>
+        <v>1407.97</v>
       </c>
       <c r="BV20" s="1">
-        <v>-785.331000</v>
+        <v>-785.33100000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>72172.434199</v>
+        <v>72172.434198999996</v>
       </c>
       <c r="BY20" s="1">
         <v>20.047898</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1567.260000</v>
+        <v>1567.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1013.590000</v>
+        <v>-1013.59</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>72185.237461</v>
+        <v>72185.237460999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.051455</v>
+        <v>20.051455000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1968.840000</v>
+        <v>1968.84</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1546.960000</v>
+        <v>-1546.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>72010.527612</v>
+        <v>72010.527612000005</v>
       </c>
       <c r="B21" s="1">
         <v>20.002924</v>
       </c>
       <c r="C21" s="1">
-        <v>904.150000</v>
+        <v>904.15</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.627000</v>
+        <v>-189.62700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>72021.359742</v>
+        <v>72021.359742000001</v>
       </c>
       <c r="G21" s="1">
-        <v>20.005933</v>
+        <v>20.005932999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.903000</v>
+        <v>919.90300000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.502000</v>
+        <v>-161.50200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>72031.865535</v>
+        <v>72031.865535000004</v>
       </c>
       <c r="L21" s="1">
-        <v>20.008852</v>
+        <v>20.008852000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.827000</v>
+        <v>941.827</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.680000</v>
+        <v>-116.68</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>72042.426995</v>
+        <v>72042.426995000002</v>
       </c>
       <c r="Q21" s="1">
         <v>20.011785</v>
       </c>
       <c r="R21" s="1">
-        <v>948.389000</v>
+        <v>948.38900000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.140000</v>
+        <v>-102.14</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>72052.630516</v>
+        <v>72052.630516000005</v>
       </c>
       <c r="V21" s="1">
-        <v>20.014620</v>
+        <v>20.014620000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>955.007000</v>
+        <v>955.00699999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.955200</v>
+        <v>-88.955200000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>72062.872406</v>
+        <v>72062.872405999995</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.017465</v>
+        <v>20.017465000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.777000</v>
+        <v>962.77700000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.981000</v>
+        <v>-79.980999999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>72073.694618</v>
+        <v>72073.694617999994</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.020471</v>
+        <v>20.020471000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.799000</v>
+        <v>967.79899999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.647700</v>
+        <v>-79.6477</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>72083.931051</v>
+        <v>72083.931051000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.023314</v>
+        <v>20.023313999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.956000</v>
+        <v>975.95600000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.356900</v>
+        <v>-87.356899999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>72094.522433</v>
+        <v>72094.522433000006</v>
       </c>
       <c r="AP21" s="1">
         <v>20.026256</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.273000</v>
+        <v>985.27300000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>72105.317583</v>
+        <v>72105.317582999996</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.029255</v>
+        <v>20.029254999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.723000</v>
+        <v>996.72299999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.423000</v>
+        <v>-123.423</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>72116.257808</v>
+        <v>72116.257807999995</v>
       </c>
       <c r="AZ21" s="1">
         <v>20.032294</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.400000</v>
+        <v>1006.4</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.972000</v>
+        <v>-141.97200000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>72127.288338</v>
+        <v>72127.288337999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.035358</v>
+        <v>20.035357999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.708000</v>
+        <v>-225.708</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>72138.634324</v>
+        <v>72138.634323999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.038510</v>
+        <v>20.038509999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1131.170000</v>
+        <v>1131.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.497000</v>
+        <v>-359.49700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>72149.969397</v>
+        <v>72149.969396999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.041658</v>
+        <v>20.041658000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.850000</v>
+        <v>1261.8499999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-565.535000</v>
+        <v>-565.53499999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>72161.299509</v>
+        <v>72161.299509000004</v>
       </c>
       <c r="BT21" s="1">
         <v>20.044805</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.020000</v>
+        <v>1408.02</v>
       </c>
       <c r="BV21" s="1">
-        <v>-785.214000</v>
+        <v>-785.21400000000006</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>72172.859765</v>
+        <v>72172.859765000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.048017</v>
+        <v>20.048017000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1567.380000</v>
+        <v>1567.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1013.510000</v>
+        <v>-1013.51</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>72185.755750</v>
+        <v>72185.755749999997</v>
       </c>
       <c r="CD21" s="1">
         <v>20.051599</v>
       </c>
       <c r="CE21" s="1">
-        <v>1966.870000</v>
+        <v>1966.87</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1546.890000</v>
+        <v>-1546.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>72011.209115</v>
+        <v>72011.209115000005</v>
       </c>
       <c r="B22" s="1">
         <v>20.003114</v>
       </c>
       <c r="C22" s="1">
-        <v>904.042000</v>
+        <v>904.04200000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.697000</v>
+        <v>-189.697</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>72021.725789</v>
+        <v>72021.725789000004</v>
       </c>
       <c r="G22" s="1">
-        <v>20.006035</v>
+        <v>20.006035000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>920.115000</v>
+        <v>920.11500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.480000</v>
+        <v>-161.47999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>72032.212245</v>
+        <v>72032.212245000002</v>
       </c>
       <c r="L22" s="1">
         <v>20.008948</v>
       </c>
       <c r="M22" s="1">
-        <v>941.833000</v>
+        <v>941.83299999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.636000</v>
+        <v>-116.636</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>72042.778977</v>
+        <v>72042.778976999994</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.011883</v>
+        <v>20.011883000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.392000</v>
+        <v>948.39200000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>72052.973251</v>
+        <v>72052.973251000003</v>
       </c>
       <c r="V22" s="1">
-        <v>20.014715</v>
+        <v>20.014714999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>955.116000</v>
+        <v>955.11599999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.069100</v>
+        <v>-89.069100000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>72063.548454</v>
+        <v>72063.548454000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.017652</v>
+        <v>20.017651999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.613000</v>
+        <v>962.61300000000006</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.008600</v>
+        <v>-80.008600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>72074.062153</v>
+        <v>72074.062153000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.020573</v>
+        <v>20.020572999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.784000</v>
+        <v>967.78399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.664600</v>
+        <v>-79.664599999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>72084.314496</v>
+        <v>72084.314496000006</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.023421</v>
+        <v>20.023420999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.951000</v>
+        <v>975.95100000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.377400</v>
+        <v>-87.377399999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>72094.882716</v>
+        <v>72094.882715999993</v>
       </c>
       <c r="AP22" s="1">
         <v>20.026356</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.249000</v>
+        <v>985.24900000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.120000</v>
+        <v>-102.12</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>72105.680126</v>
+        <v>72105.680126000007</v>
       </c>
       <c r="AU22" s="1">
         <v>20.029356</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.711000</v>
+        <v>996.71100000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.403000</v>
+        <v>-123.40300000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>72116.639727</v>
+        <v>72116.639727000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.032400</v>
+        <v>20.032399999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.958000</v>
+        <v>-141.958</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>72127.731265</v>
+        <v>72127.731264999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.035481</v>
+        <v>20.035481000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.724000</v>
+        <v>-225.72399999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>72138.975076</v>
+        <v>72138.975076000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.038604</v>
+        <v>20.038603999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.160000</v>
+        <v>1131.1600000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.517000</v>
+        <v>-359.517</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>72150.359252</v>
+        <v>72150.359251999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.041766</v>
+        <v>20.041765999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.780000</v>
+        <v>1261.78</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-565.513000</v>
+        <v>-565.51300000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>72161.710692</v>
+        <v>72161.710691999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.044920</v>
+        <v>20.044920000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.040000</v>
+        <v>1408.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-785.224000</v>
+        <v>-785.22400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>72173.304677</v>
+        <v>72173.304676999993</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.048140</v>
+        <v>20.04814</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1567.250000</v>
+        <v>1567.25</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1013.600000</v>
+        <v>-1013.6</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>72186.273076</v>
+        <v>72186.273075999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.051743</v>
+        <v>20.051742999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1967.600000</v>
+        <v>1967.6</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1548.590000</v>
+        <v>-1548.59</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>72011.554331</v>
+        <v>72011.554331000007</v>
       </c>
       <c r="B23" s="1">
-        <v>20.003210</v>
+        <v>20.003209999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>904.040000</v>
+        <v>904.04</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.773000</v>
+        <v>-189.773</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>72022.068060</v>
+        <v>72022.068060000005</v>
       </c>
       <c r="G23" s="1">
-        <v>20.006130</v>
+        <v>20.006129999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>920.293000</v>
+        <v>920.29300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.265000</v>
+        <v>-161.26499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>72032.559940</v>
+        <v>72032.559940000006</v>
       </c>
       <c r="L23" s="1">
-        <v>20.009044</v>
+        <v>20.009043999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.846000</v>
+        <v>941.846</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.535000</v>
+        <v>-116.535</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>72043.439649</v>
+        <v>72043.439649000007</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.012067</v>
+        <v>20.012066999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>948.342000</v>
+        <v>948.34199999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.106000</v>
+        <v>-102.10599999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>72053.658723</v>
       </c>
       <c r="V23" s="1">
-        <v>20.014905</v>
+        <v>20.014904999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.105000</v>
+        <v>955.10500000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.250700</v>
+        <v>-89.250699999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>72063.917974</v>
+        <v>72063.917973999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.017755</v>
+        <v>20.017755000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.694000</v>
+        <v>962.69399999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.947300</v>
+        <v>-79.947299999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>72074.408393</v>
+        <v>72074.408393000005</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.020669</v>
+        <v>20.020669000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.866000</v>
+        <v>967.86599999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.648700</v>
+        <v>-79.648700000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>72084.665626</v>
+        <v>72084.665626000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.023518</v>
+        <v>20.023517999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.982000</v>
+        <v>975.98199999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.356500</v>
+        <v>-87.356499999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>72095.243309</v>
+        <v>72095.243308999998</v>
       </c>
       <c r="AP23" s="1">
         <v>20.026456</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.253000</v>
+        <v>985.25300000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.152000</v>
+        <v>-102.152</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>72106.111645</v>
+        <v>72106.111644999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.029475</v>
+        <v>20.029475000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.733000</v>
+        <v>996.73299999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.429000</v>
+        <v>-123.429</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>72117.069264</v>
+        <v>72117.069264000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.032519</v>
+        <v>20.032519000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.969000</v>
+        <v>-141.96899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>72128.009521</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.035558</v>
+        <v>20.035558000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.705000</v>
+        <v>-225.70500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>72139.352033</v>
+        <v>72139.352033000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.038709</v>
+        <v>20.038709000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1131.130000</v>
+        <v>1131.1300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.510000</v>
+        <v>-359.51</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>72150.771439</v>
+        <v>72150.771439000004</v>
       </c>
       <c r="BO23" s="1">
         <v>20.041881</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.820000</v>
+        <v>1261.82</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-565.538000</v>
+        <v>-565.53800000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>72162.145683</v>
+        <v>72162.145682999995</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.045040</v>
+        <v>20.04504</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV23" s="1">
-        <v>-785.163000</v>
+        <v>-785.16300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>72173.738676</v>
+        <v>72173.738675999994</v>
       </c>
       <c r="BY23" s="1">
         <v>20.048261</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1567.320000</v>
+        <v>1567.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1013.590000</v>
+        <v>-1013.59</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>72186.795859</v>
+        <v>72186.795859000005</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.051888</v>
+        <v>20.051888000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1967.210000</v>
+        <v>1967.21</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1548.720000</v>
+        <v>-1548.72</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>72011.898553</v>
+        <v>72011.898553000006</v>
       </c>
       <c r="B24" s="1">
-        <v>20.003305</v>
+        <v>20.003305000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>903.980000</v>
+        <v>903.98</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.722000</v>
+        <v>-189.72200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>72022.733661</v>
+        <v>72022.733661000006</v>
       </c>
       <c r="G24" s="1">
-        <v>20.006315</v>
+        <v>20.006315000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>919.927000</v>
+        <v>919.92700000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.360000</v>
+        <v>-161.36000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>72033.227033</v>
+        <v>72033.227033000003</v>
       </c>
       <c r="L24" s="1">
-        <v>20.009230</v>
+        <v>20.009229999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.720000</v>
+        <v>941.72</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.667000</v>
+        <v>-116.667</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>72043.826050</v>
+        <v>72043.826050000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.012174</v>
+        <v>20.012174000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>948.401000</v>
+        <v>948.40099999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.077000</v>
+        <v>-102.077</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>72054.008404</v>
+        <v>72054.008403999993</v>
       </c>
       <c r="V24" s="1">
-        <v>20.015002</v>
+        <v>20.015001999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>955.003000</v>
+        <v>955.00300000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.071500</v>
+        <v>-89.0715</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>72064.268149</v>
+        <v>72064.268148999996</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.017852</v>
+        <v>20.017852000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.675000</v>
+        <v>962.67499999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.049900</v>
+        <v>-80.049899999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>72074.751591</v>
+        <v>72074.751590999993</v>
       </c>
       <c r="AF24" s="1">
         <v>20.020764</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.949000</v>
+        <v>967.94899999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.765400</v>
+        <v>-79.7654</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>72085.008891</v>
+        <v>72085.008891000005</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.023614</v>
+        <v>20.023613999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.982000</v>
+        <v>975.98199999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.377700</v>
+        <v>-87.377700000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>72095.673378</v>
+        <v>72095.673378000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.026576</v>
+        <v>20.026575999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.253000</v>
+        <v>985.25300000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>72106.413251</v>
+        <v>72106.413251000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.029559</v>
+        <v>20.029558999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.710000</v>
+        <v>996.71</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.423000</v>
+        <v>-123.423</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>72117.355454</v>
+        <v>72117.355454000004</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.032599</v>
+        <v>20.032599000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB24" s="1">
-        <v>-141.959000</v>
+        <v>-141.959</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>72128.372592</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.035659</v>
+        <v>20.035658999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.715000</v>
+        <v>-225.715</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>72139.727505</v>
+        <v>72139.727505000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.038813</v>
+        <v>20.038813000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.140000</v>
+        <v>1131.1400000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.511000</v>
+        <v>-359.51100000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>72151.164754</v>
+        <v>72151.164753999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.041990</v>
+        <v>20.041989999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-565.511000</v>
+        <v>-565.51099999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>72162.569268</v>
+        <v>72162.569268000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.045158</v>
+        <v>20.045158000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.090000</v>
+        <v>1408.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-785.164000</v>
+        <v>-785.16399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>72174.161287</v>
+        <v>72174.161286999995</v>
       </c>
       <c r="BY24" s="1">
         <v>20.048378</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1567.200000</v>
+        <v>1567.2</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1013.640000</v>
+        <v>-1013.64</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>72187.352899</v>
+        <v>72187.352899000005</v>
       </c>
       <c r="CD24" s="1">
         <v>20.052042</v>
       </c>
       <c r="CE24" s="1">
-        <v>1966.970000</v>
+        <v>1966.97</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1547.270000</v>
+        <v>-1547.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>72012.574602</v>
+        <v>72012.574601999993</v>
       </c>
       <c r="B25" s="1">
-        <v>20.003493</v>
+        <v>20.003492999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>903.977000</v>
+        <v>903.97699999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.738000</v>
+        <v>-189.738</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>72023.101195</v>
+        <v>72023.101194999996</v>
       </c>
       <c r="G25" s="1">
-        <v>20.006417</v>
+        <v>20.006416999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.924000</v>
+        <v>919.92399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.463000</v>
+        <v>-161.46299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>72033.597037</v>
       </c>
       <c r="L25" s="1">
-        <v>20.009333</v>
+        <v>20.009333000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>941.648000</v>
+        <v>941.64800000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.812000</v>
+        <v>-116.812</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>72044.174223</v>
+        <v>72044.174222999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.012271</v>
+        <v>20.012270999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>948.435000</v>
+        <v>948.43499999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.113000</v>
+        <v>-102.113</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>72054.357090</v>
+        <v>72054.357090000005</v>
       </c>
       <c r="V25" s="1">
-        <v>20.015099</v>
+        <v>20.015098999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.093000</v>
+        <v>955.09299999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.211600</v>
+        <v>-89.211600000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>72064.620837</v>
+        <v>72064.620836999995</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.017950</v>
+        <v>20.017949999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.974900</v>
+        <v>-79.974900000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72075.176168</v>
+        <v>72075.176168000005</v>
       </c>
       <c r="AF25" s="1">
         <v>20.020882</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.798000</v>
+        <v>967.798</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.642100</v>
+        <v>-79.642099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>72085.431450</v>
+        <v>72085.431450000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.023731</v>
+        <v>20.023731000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.981000</v>
+        <v>975.98099999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.361500</v>
+        <v>-87.361500000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>72095.961515</v>
+        <v>72095.961515000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.026656</v>
+        <v>20.026655999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.257000</v>
+        <v>985.25699999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>72106.774338</v>
+        <v>72106.774338000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.029660</v>
+        <v>20.02966</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.734000</v>
+        <v>996.73400000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.428000</v>
+        <v>-123.428</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>72117.713072</v>
+        <v>72117.713071999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>20.032698</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.390000</v>
+        <v>1006.39</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.981000</v>
+        <v>-141.98099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>72128.733713</v>
+        <v>72128.733712999994</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.035759</v>
+        <v>20.035758999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.716000</v>
+        <v>-225.71600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>72140.499808</v>
+        <v>72140.499807999993</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.039028</v>
+        <v>20.039027999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.534000</v>
+        <v>-359.53399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>72151.989142</v>
+        <v>72151.989142000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.042219</v>
+        <v>20.042218999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-565.544000</v>
+        <v>-565.54399999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>72162.983934</v>
+        <v>72162.983934000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.045273</v>
+        <v>20.045273000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.130000</v>
+        <v>1408.13</v>
       </c>
       <c r="BV25" s="1">
-        <v>-785.105000</v>
+        <v>-785.10500000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>72174.581380</v>
+        <v>72174.581380000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.048495</v>
+        <v>20.048494999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1567.290000</v>
+        <v>1567.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1013.560000</v>
+        <v>-1013.56</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>72188.200567</v>
+        <v>72188.200567000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.052278</v>
+        <v>20.052278000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1967.910000</v>
+        <v>1967.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1548.640000</v>
+        <v>-1548.64</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>72012.923785</v>
+        <v>72012.923785000006</v>
       </c>
       <c r="B26" s="1">
-        <v>20.003590</v>
+        <v>20.003589999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.020000</v>
+        <v>904.02</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.668000</v>
+        <v>-189.66800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>72023.444923</v>
+        <v>72023.444923000003</v>
       </c>
       <c r="G26" s="1">
-        <v>20.006512</v>
+        <v>20.006512000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.868000</v>
+        <v>919.86800000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.211000</v>
+        <v>-161.21100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>72033.941261</v>
@@ -6679,225 +7095,226 @@
         <v>20.009428</v>
       </c>
       <c r="M26" s="1">
-        <v>941.737000</v>
+        <v>941.73699999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.740000</v>
+        <v>-116.74</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>72044.517487</v>
+        <v>72044.517487000005</v>
       </c>
       <c r="Q26" s="1">
         <v>20.012366</v>
       </c>
       <c r="R26" s="1">
-        <v>948.403000</v>
+        <v>948.40300000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.141000</v>
+        <v>-102.14100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>72054.785643</v>
+        <v>72054.785642999996</v>
       </c>
       <c r="V26" s="1">
-        <v>20.015218</v>
+        <v>20.015218000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.016000</v>
+        <v>955.01599999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.070600</v>
+        <v>-89.070599999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>72065.049845</v>
+        <v>72065.049845000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.018069</v>
+        <v>20.018069000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.690000</v>
+        <v>962.69</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.044100</v>
+        <v>-80.0441</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72075.465830</v>
+        <v>72075.465830000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.020963</v>
+        <v>20.020962999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.843000</v>
+        <v>967.84299999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.687800</v>
+        <v>-79.687799999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>72085.726074</v>
+        <v>72085.726074000006</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.023813</v>
+        <v>20.023813000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.973000</v>
+        <v>975.97299999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.373500</v>
+        <v>-87.373500000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>72096.324090</v>
+        <v>72096.324089999995</v>
       </c>
       <c r="AP26" s="1">
         <v>20.026757</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.265000</v>
+        <v>985.26499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.120000</v>
+        <v>-102.12</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>72107.140844</v>
+        <v>72107.140843999994</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.029761</v>
+        <v>20.029761000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.724000</v>
+        <v>996.72400000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.442000</v>
+        <v>-123.44199999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>72118.070687</v>
+        <v>72118.070686999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.032797</v>
+        <v>20.032796999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.380000</v>
+        <v>1006.38</v>
       </c>
       <c r="BB26" s="1">
-        <v>-141.974000</v>
+        <v>-141.97399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>72129.454368</v>
+        <v>72129.454368000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.035960</v>
+        <v>20.035959999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.714000</v>
+        <v>-225.714</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>72140.874257</v>
+        <v>72140.874257000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.039132</v>
+        <v>20.039131999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1131.180000</v>
+        <v>1131.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.495000</v>
+        <v>-359.495</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>72152.380946</v>
+        <v>72152.380946000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.042328</v>
+        <v>20.042328000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.790000</v>
+        <v>1261.79</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-565.524000</v>
+        <v>-565.524</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>72163.411475</v>
+        <v>72163.411475000001</v>
       </c>
       <c r="BT26" s="1">
         <v>20.045392</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.100000</v>
+        <v>1408.1</v>
       </c>
       <c r="BV26" s="1">
-        <v>-785.075000</v>
+        <v>-785.07500000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>72175.330835</v>
+        <v>72175.330835000001</v>
       </c>
       <c r="BY26" s="1">
         <v>20.048703</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1567.290000</v>
+        <v>1567.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1013.640000</v>
+        <v>-1013.64</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>72188.427228</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.052341</v>
+        <v>20.052340999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.520000</v>
+        <v>1968.52</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1547.000000</v>
+        <v>-1547</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>